--- a/CashFlow/NVR_cashflow.xlsx
+++ b/CashFlow/NVR_cashflow.xlsx
@@ -764,19 +764,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1635968000.0</v>
+        <v>6905000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>-362384000.0</v>
+        <v>6591000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>-267327000.0</v>
+        <v>5031161000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>-205412000.0</v>
+        <v>3169440000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>-234471000.0</v>
+        <v>1449881000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-94178000.0</v>
@@ -1032,19 +1032,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>622105000.0</v>
+        <v>1521000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>168667000.0</v>
+        <v>1474000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>115852000.0</v>
+        <v>1097931000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>27667000.0</v>
+        <v>705155000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-26664000.0</v>
+        <v>379774000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>33926000.0</v>
